--- a/com/test.xlsx
+++ b/com/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,105 +491,100 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Years of Experience in this Company</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>List of Software Skills</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Projects Completed</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Professional Qualifications</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Years of Experience in this Company</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>List of Software Skills</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>KPI</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Absentism Rate</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Employee Satisfaction Score</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Experience in Years Previous Positions</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Total Experience in Years</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Number of Goal Assigned</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Number of Goals Achieved</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Final Score</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Goals Score</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Competency Score</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Cultural Value Score</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Additional Accomplishment Score</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Potential Assessment Score</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Trait Assessment Score</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Projects Completed</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>JD match Score</t>
+          <t>score</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Suitability Score Scaled</t>
         </is>
@@ -598,20 +593,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMP9552</t>
+          <t>EMP9585</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4494037628173828</v>
+        <v>0.1980359852313995</v>
       </c>
       <c r="C2" t="n">
-        <v>1.000000238418579</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4847251772880554</v>
+        <v>0.493388444185257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6275902986526489</v>
+        <v>0.6195207834243774</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -619,7 +614,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -628,106 +623,107 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>8</v>
+          <t>Bachelor of Engineering, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>23</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Excel, Power BI</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Pandas, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>58.52</v>
+          <t>Sports Performance Analytics Using Wearable Device Data, Sustainability Metrics Dashboard, Dynamic Pricing Analytics Dashboard, Automated Legal Document Summarization Using NLP, Employee Productivity Tracker</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Financial Analyst, BI Analyst</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>5.77</v>
+        <v>42.00308747830039</v>
       </c>
       <c r="Q2" t="n">
-        <v>73.88</v>
+        <v>5.07</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>75.52</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>37.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>36.29402540238516</v>
       </c>
       <c r="X2" t="n">
-        <v>28.69</v>
+        <v>60</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.37</v>
+        <v>27.47364264361262</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.94</v>
+        <v>74.14969089730583</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.81999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Predictive Maintenance for Manufacturing, Ethical AI Bias Detection, Recommendation Engine Optimization</t>
-        </is>
+        <v>42.11995669062661</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>67.21611703311055</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5526674389839172</v>
+        <v>8.796756721246844</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.262401548659649</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.4850625533620228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EMP9670</t>
+          <t>EMP9681</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.224980354309082</v>
+        <v>0.1434081494808197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7875052094459534</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3976448178291321</v>
+        <v>0.2662105858325958</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6787164211273193</v>
+        <v>0.5372620820999146</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -740,7 +736,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -750,104 +746,101 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science, Master of Data Analytics, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Database Administrator, Machine Learning Engineer</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>16</v>
+          <t>Bachelor of Engineering, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>AWS, Spark</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Tableau, Excel</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>63.81</v>
+          <t>Batch and Streaming Data Processing, Retail Inventory Optimization with Reinforcement Learning, Blockchain Transaction Fraud Detection System, Automated Data Quality Framework, Smart Grid Load Balancing Using Predictive Analytics</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Database Administrator, Junior Data Engineer, Data Warehouse Developer, Cloud Data Engineer, Software Engineer (Data), BI Developer, Machine Learning Engineer, Big Data Engineer, ETL Developer, DevOps Engineer</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>11.89</v>
+        <v>45.08764967998126</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.01000000000001</v>
+        <v>7.57</v>
       </c>
       <c r="R3" t="n">
-        <v>17</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="S3" t="n">
+        <v>19</v>
+      </c>
+      <c r="T3" t="n">
         <v>33</v>
       </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V3" t="n">
-        <v>51.14</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>100</v>
+        <v>40.5686852824908</v>
       </c>
       <c r="X3" t="n">
-        <v>30.72</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>95.34999999999999</v>
+        <v>30.30151599284727</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.61</v>
+        <v>78.77655519558417</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.3</v>
+        <v>8.06</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.22</v>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Customer Segmentation with Clustering, Churn Prediction for Subscription Services</t>
-        </is>
+        <v>54.17820839016045</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>60.0923068142741</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5750243663787842</v>
+        <v>10.62286825927372</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.25060701876976</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.8146847149974009</v>
+        <v>0.8082359472505896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EMP9297</t>
+          <t>EMP9305</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5142970085144043</v>
+        <v>0.4942834973335266</v>
       </c>
       <c r="C4" t="n">
         <v>0.7875052094459534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2837293446063995</v>
+        <v>0.3306679427623749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6775242686271667</v>
+        <v>0.5990755558013916</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -866,104 +859,101 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science, Master of AI</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Market Research Analyst</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>13</v>
+          <t>Bachelor of Science, Master of AI, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>24</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>TensorFlow, Deep Learning, Pandas</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>TensorFlow, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>89.98999999999999</v>
+          <t>Ethical AI Bias Detection, Deep Learning for Image Recognition, GenAI-Powered Customer Insights, Climate Change Impact Simulation with ML, AI-Powered Fraud Detection</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Predictive Modeler, Big Data Analyst</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>5.18</v>
+        <v>45.46801576584575</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.38</v>
+        <v>2.67</v>
       </c>
       <c r="R4" t="n">
-        <v>21</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>51.52</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
-        <v>21.43</v>
+        <v>39.89739173832587</v>
       </c>
       <c r="X4" t="n">
-        <v>43.34</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.59999999999999</v>
+        <v>31.87837372591305</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.949999999999999</v>
+        <v>79.67308526388106</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.13</v>
+        <v>8.58</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.92</v>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Deep Learning for Image Recognition, AI-Powered Fraud Detection</t>
-        </is>
+        <v>46.55618547656422</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>64.51174406683397</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5359340906143188</v>
+        <v>8.152932476086402</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.3508666739562</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.5496693330622496</v>
+        <v>0.3711227079344748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EMP98810</t>
+          <t>EMP9874</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.4518172144889832</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000000238418579</v>
+        <v>0.722848653793335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.515538215637207</v>
+        <v>0.3066302537918091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6096470355987549</v>
+        <v>0.6380985975265503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -977,97 +967,98 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
+          <t>Bachelor of Statistics</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Pandas, TensorFlow</t>
+        </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Pandas, TensorFlow</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>67.05</v>
+          <t>AI-Based Wildlife Poaching Prediction Model, Real Estate Price Forecasting with Geospatial Clustering, Ethical AI Bias Detection, Deep Learning for Image Recognition, Climate Change Impact Simulation with ML</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Junior Data Scientist, Predictive Modeler, AI Engineer, Data Analyst, Big Data Analyst, Deep Learning Engineer, Business Intelligence Analyst, Machine Learning Engineer, Research Scientist, Quantitative Analyst</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>14.43</v>
+        <v>36.51649194824833</v>
       </c>
       <c r="Q5" t="n">
-        <v>81.90000000000001</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>61.92</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T5" t="n">
+        <v>35</v>
+      </c>
+      <c r="U5" t="n">
+        <v>15</v>
+      </c>
+      <c r="V5" t="n">
         <v>10</v>
       </c>
-      <c r="U5" t="n">
-        <v>7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>45.84</v>
-      </c>
       <c r="W5" t="n">
-        <v>70</v>
+        <v>36.35513669471299</v>
       </c>
       <c r="X5" t="n">
-        <v>23.47</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.51000000000001</v>
+        <v>24.01897379205927</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.960000000000001</v>
+        <v>53.46735507870143</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.66</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.45</v>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Ethical AI Bias Detection, Deep Learning for Image Recognition</t>
-        </is>
+        <v>55.4739368667281</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>49.82849349778766</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.529228687286377</v>
+        <v>8.380342109802026</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.98929747298723</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.5250981074373909</v>
+        <v>0.4113681921781389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMP9372</t>
+          <t>EMP9381</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.238443911075592</v>
+        <v>0.109248474240303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5365577936172485</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2636123597621918</v>
+        <v>0.4513604640960693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7451770305633545</v>
+        <v>0.6266682147979736</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1075,7 +1066,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1084,106 +1075,103 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Expert</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>BI Beginner, Machine Learning Engineer</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+          <t>Bachelor of Science, Master of Data Analytics</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Kafka, AWS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Data Mesh Implementation</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>ETL Developer, Junior Data Engineer</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>32.85846276815025</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="R6" t="n">
+        <v>60.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Excel</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>98.39</v>
-      </c>
-      <c r="R6" t="n">
-        <v>28</v>
-      </c>
-      <c r="S6" t="n">
-        <v>30</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6</v>
-      </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>56.65</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>33.33</v>
+        <v>35</v>
       </c>
       <c r="X6" t="n">
-        <v>44.87</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.27</v>
+        <v>8.378287191415181</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.62</v>
+        <v>55.73805666720115</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.19</v>
+        <v>0.72</v>
       </c>
       <c r="AB6" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Customer Segmentation with Clustering, Employee Productivity Tracker, Dynamic Pricing Analytics Dashboard</t>
-        </is>
+        <v>12.481546543598</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>32.73158154476884</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5396072268486023</v>
+        <v>6.32628324231421</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.7049674269319</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.5057758374685185</v>
+        <v>0.0478541561350827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMP9191</t>
+          <t>EMP9213</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2211389541625977</v>
+        <v>0.2359613478183746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5392076969146729</v>
+        <v>0.722848653793335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4811861217021942</v>
+        <v>0.3814196586608887</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6380985975265503</v>
+        <v>0.5381187200546265</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1191,7 +1179,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1210,100 +1198,97 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>5</v>
+          <t>Bachelor of Engineering</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>14</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Kafka, Spark</t>
+        </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Kafka, Hadoop</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>85.27</v>
-      </c>
+          <t>Retail Inventory Optimization with Reinforcement Learning, Predictive Equipment Failure in Manufacturing Plants, Real-Time IoT Data Pipeline</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>2.81</v>
+        <v>46.26553098236013</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.02</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>7</v>
+        <v>77.78</v>
       </c>
       <c r="S7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>14</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15</v>
+      </c>
+      <c r="V7" t="n">
+        <v>13</v>
+      </c>
+      <c r="W7" t="n">
+        <v>47.16309640956106</v>
+      </c>
+      <c r="X7" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>31.73954012616133</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>60.38095061117124</v>
+      </c>
+      <c r="AA7" t="n">
         <v>3</v>
       </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>56.14</v>
-      </c>
-      <c r="W7" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="X7" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>67.42</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>75.64</v>
-      </c>
       <c r="AB7" t="n">
-        <v>92.23999999999999</v>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Scalable Data Lake Implementation, Real-Time IoT Data Pipeline, Automated Data Quality Framework</t>
-        </is>
+        <v>73.66859117657103</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>49.49431656555684</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5706948041915894</v>
+        <v>9.38355911125154</v>
       </c>
       <c r="AE7" t="n">
-        <v>15.72958489872913</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.6433631446015459</v>
+        <v>0.5889110401442954</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EMP9616</t>
+          <t>EMP9635</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2359613478183746</v>
+        <v>0.1331491619348526</v>
       </c>
       <c r="C8" t="n">
-        <v>1.000000238418579</v>
+        <v>0.2401334792375565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4229696691036224</v>
+        <v>0.3569145500659943</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6986917853355408</v>
+        <v>0.5381187200546265</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1312,114 +1297,111 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Expert</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, Master of Data Science, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Data Science Manager, Data Analyst</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>17</v>
+          <t>Bachelor of Engineering</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Excel, Tableau</t>
+        </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Kafka, Spark</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>91.66</v>
+          <t>Customer Segmentation with Clustering, Sports Performance Analytics Using Wearable Device Data, Social Media Trend Forecasting with NLP and Time-Series</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Junior Data Analyst, Financial Analyst, Operations Analyst, Statistical Analyst</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>6.4</v>
+        <v>35.92260772420474</v>
       </c>
       <c r="Q8" t="n">
-        <v>85.95</v>
+        <v>12.05</v>
       </c>
       <c r="R8" t="n">
-        <v>20</v>
+        <v>61.77</v>
       </c>
       <c r="S8" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V8" t="n">
-        <v>56.13</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>35.47762377496305</v>
       </c>
       <c r="X8" t="n">
-        <v>48.67</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.62</v>
+        <v>26.97655518467861</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.43</v>
+        <v>69.89484095462602</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.06999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="AB8" t="n">
-        <v>92.45</v>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Batch and Streaming Data Processing, Data Mesh Implementation, Scalable Data Lake Implementation</t>
-        </is>
+        <v>33.1759149273756</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>56.2411261866885</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.5998446941375732</v>
+        <v>8.017517103569137</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.89427157114668</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.382726041492356</v>
+        <v>0.3471577722721249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EMP9381</t>
+          <t>EMP9387</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.109248474240303</v>
+        <v>0.2164463549852371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5392076969146729</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4513604640960693</v>
+        <v>0.4191967844963074</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6266682147979736</v>
+        <v>0.6275902986526489</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1433,105 +1415,106 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bachelor of Science, Master of Data Analytics</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+          <t>Bachelor of Computer Science, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Kafka, AWS, Spark</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Kafka, AWS</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>83.3</v>
+          <t>Retail Inventory Optimization with Reinforcement Learning, Predictive Equipment Failure in Manufacturing Plants</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Database Administrator, BI Developer, Cloud Data Engineer, Machine Learning Engineer</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>12.34</v>
+        <v>35.13685908558867</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.53</v>
+        <v>7.76</v>
       </c>
       <c r="R9" t="n">
+        <v>83.12</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
         <v>1</v>
       </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>47.51</v>
-      </c>
       <c r="W9" t="n">
-        <v>16.67</v>
+        <v>35</v>
       </c>
       <c r="X9" t="n">
-        <v>25.18</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Y9" t="n">
-        <v>79.95999999999999</v>
+        <v>5.031500030478307</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.72</v>
+        <v>70.68099782752246</v>
       </c>
       <c r="AA9" t="n">
-        <v>84.22</v>
+        <v>0.53</v>
       </c>
       <c r="AB9" t="n">
-        <v>75.16</v>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Data Catalog and Lineage Tracking, Data Warehouse Optimization, Data Mesh Implementation</t>
-        </is>
+        <v>21.50882522363921</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>47.90765779826109</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5491517186164856</v>
+        <v>9.47608767489125</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.646186563357663</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.1619953228326249</v>
+        <v>0.6052861461114749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMP9698</t>
+          <t>EMP9701</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07100217044353485</v>
+        <v>0.1309512704610825</v>
       </c>
       <c r="C10" t="n">
         <v>0.2401334792375565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4847251772880554</v>
+        <v>0.3693963289260864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6023045778274536</v>
+        <v>0.6947472095489502</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1545,101 +1528,94 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bachelor of Applied Statistics</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>7</v>
+          <t>Bachelor of Science, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Excel, Tableau</t>
+        </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Tableau, Power BI</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>62.43</v>
-      </c>
+          <t>Dynamic Pricing Analytics Dashboard</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>4.56</v>
+        <v>32.47188246148625</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.83</v>
+        <v>3.16</v>
       </c>
       <c r="R10" t="n">
-        <v>16</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>46.41</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="X10" t="n">
-        <v>25.07</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.76000000000001</v>
+        <v>16.17684942204783</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.75</v>
+        <v>71.14463767840061</v>
       </c>
       <c r="AA10" t="n">
-        <v>56.49</v>
+        <v>0.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>72.69</v>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Employee Productivity Tracker, Dynamic Pricing Analytics Dashboard</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>57.42912182923169</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.4666225016117096</v>
+        <v>7.232814146582232</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.2450212265742</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.4745191877483572</v>
+        <v>0.2082861247725079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EMP9656</t>
+          <t>EMP9668</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1804074198007584</v>
+        <v>0.5098041296005249</v>
       </c>
       <c r="C11" t="n">
-        <v>1.000000238418579</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5335603952407837</v>
+        <v>0.3815372288227081</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6914874315261841</v>
+        <v>0.6023045778274536</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1647,7 +1623,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1656,110 +1632,111 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
+          <t>Bachelor of Applied Statistics</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>22</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Deep Learning, TensorFlow, Pandas</t>
+        </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>AWS, Hadoop, Spark</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>71.43000000000001</v>
+          <t>Personalized Learning Recommendation Engine for EdTech, Ethical AI Bias Detection, AI-Powered Fraud Detection, Real Estate Price Forecasting with Geospatial Clustering, Climate Change Impact Simulation with ML</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Business Intelligence Analyst, Deep Learning Engineer, AI Engineer, Research Scientist, Junior Data Scientist, Quantitative Analyst, Machine Learning Engineer</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>52.36527104774419</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.65000000000001</v>
+        <v>12.77</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>84.37</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T11" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="U11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V11" t="n">
-        <v>52.66</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>85.70999999999999</v>
+        <v>61.10234616393809</v>
       </c>
       <c r="X11" t="n">
-        <v>20.12</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.8</v>
+        <v>41.76658682693828</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.35</v>
+        <v>74.73285644725333</v>
       </c>
       <c r="AA11" t="n">
-        <v>80.40000000000001</v>
+        <v>4.51</v>
       </c>
       <c r="AB11" t="n">
-        <v>78.79000000000001</v>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Data Mesh Implementation, Batch and Streaming Data Processing</t>
-        </is>
+        <v>55.11206569637773</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>60.43319950548837</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.5222033262252808</v>
+        <v>9.716394482000437</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5332148791386</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.697975577061568</v>
+        <v>0.6478140885787318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EMP9746</t>
+          <t>EMP9759</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09911369532346725</v>
+        <v>0.4264350831508636</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3654744625091553</v>
+        <v>0.4462503790855408</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6023045778274536</v>
+        <v>0.6447646021842957</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1768,114 +1745,107 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Expert</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bachelor of Applied Statistics</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Market Research Analyst</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>10</v>
+          <t>Bachelor of Science</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Pandas, TensorFlow</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Power BI, Excel, Tableau</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>75.67</v>
-      </c>
+          <t>Ethical AI Bias Detection, GenAI-Powered Customer Insights, Climate Change Impact Simulation with ML</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>12.38</v>
+        <v>30</v>
       </c>
       <c r="Q12" t="n">
-        <v>92.63</v>
+        <v>0.97</v>
       </c>
       <c r="R12" t="n">
-        <v>19</v>
+        <v>78.63</v>
       </c>
       <c r="S12" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
-        <v>58.86</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>57.14</v>
+        <v>35</v>
       </c>
       <c r="X12" t="n">
-        <v>44.02</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.75</v>
+        <v>13.30686696015973</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.09</v>
+        <v>65.30195794095438</v>
       </c>
       <c r="AA12" t="n">
-        <v>73.37</v>
+        <v>5.82</v>
       </c>
       <c r="AB12" t="n">
-        <v>81.31999999999999</v>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Sales Forecasting Model, Customer Segmentation with Clustering</t>
-        </is>
+        <v>25.17802855487298</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>44.48781386514631</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.4583472907543182</v>
+        <v>7.263616728367302</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.05263333344802</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.6653166073300173</v>
+        <v>0.2137373662157152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EMP9926</t>
+          <t>EMP9931</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4641037881374359</v>
+        <v>0.2079861760139465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5392076969146729</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4541375637054443</v>
+        <v>0.3331243991851807</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6447646021842957</v>
+        <v>0.7330794930458069</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1884,7 +1854,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1894,100 +1864,101 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bachelor of Science</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>3</v>
+          <t>Bachelor of Computer Science</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Excel, Power BI</t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Deep Learning, Pandas</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>54.51</v>
+          <t>Customer Segmentation with Clustering, Dynamic Pricing Analytics Dashboard</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SQL Data Analyst, Business Analyst</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>11.56</v>
+        <v>31.10660087372625</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.67</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>66.58</v>
       </c>
       <c r="S13" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>46.39</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>66.67</v>
+        <v>37.16337415196633</v>
       </c>
       <c r="X13" t="n">
-        <v>18.7</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.36</v>
+        <v>18.23808641540981</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.95</v>
+        <v>66.04486864028453</v>
       </c>
       <c r="AA13" t="n">
-        <v>55.64</v>
+        <v>5.15</v>
       </c>
       <c r="AB13" t="n">
-        <v>76.68000000000001</v>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>AI-Powered Fraud Detection, GenAI-Powered Customer Insights</t>
-        </is>
+        <v>28.13863951017332</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>52.48143602860996</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.5529589653015137</v>
+        <v>7.95589676509551</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.09573353486912</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.4643740162401931</v>
+        <v>0.3362526038295652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMP9522</t>
+          <t>EMP9527</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4994378983974457</v>
+        <v>0.2446934133768082</v>
       </c>
       <c r="C14" t="n">
-        <v>1.000000238418579</v>
+        <v>0.722848653793335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2499485909938812</v>
+        <v>0.2650486528873444</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7580140233039856</v>
+        <v>0.6195207834243774</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1996,7 +1967,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2006,104 +1977,101 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, Master of Data Science, PhD in Statistics</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>AI Ethics Certification</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>9</v>
+          <t>Bachelor of Engineering, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>17</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Spark, Hadoop</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Deep Learning, Pandas, TensorFlow</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>99.98999999999999</v>
+          <t>Blockchain Transaction Fraud Detection System, Smart Grid Load Balancing Using Predictive Analytics, Scalable Data Lake Implementation, Retail Inventory Optimization with Reinforcement Learning, Predictive Equipment Failure in Manufacturing Plants</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Data Warehouse Developer, Big Data Engineer, DevOps Engineer, Cloud Data Engineer, Junior Data Engineer, Machine Learning Engineer, Database Administrator</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0.03</v>
+        <v>31.96226542458156</v>
       </c>
       <c r="Q14" t="n">
-        <v>85.55</v>
+        <v>2.69</v>
       </c>
       <c r="R14" t="n">
-        <v>25</v>
+        <v>87.56</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V14" t="n">
-        <v>54.35</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.33</v>
+        <v>35</v>
       </c>
       <c r="X14" t="n">
-        <v>55.41</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.75</v>
+        <v>37.2714079312339</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.550000000000001</v>
+        <v>72.05779093524461</v>
       </c>
       <c r="AA14" t="n">
-        <v>80.55</v>
+        <v>7.86</v>
       </c>
       <c r="AB14" t="n">
-        <v>50.06</v>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>GenAI-Powered Customer Insights, Ethical AI Bias Detection, Natural Language Processing for Chatbots</t>
-        </is>
+        <v>38.58883242368061</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>55.19583785879186</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.5250657200813293</v>
+        <v>6.055880330708973</v>
       </c>
       <c r="AE14" t="n">
-        <v>13.75023855686288</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.508852336088548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMP9091</t>
+          <t>EMP9092</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4225433170795441</v>
+        <v>0.4264350831508636</v>
       </c>
       <c r="C15" t="n">
         <v>0.7875052094459534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4947021305561066</v>
+        <v>0.3897541463375092</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6096470355987549</v>
+        <v>0.7330794930458069</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2122,92 +2090,93 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>27</v>
+          <t>Bachelor of Computer Science</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Pandas, TensorFlow</t>
+        </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Pandas, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>76.39</v>
+          <t>Deep Learning for Image Recognition, AI-Based Wildlife Poaching Prediction Model, GenAI-Powered Customer Insights, Ethical AI Bias Detection, Energy Consumption Anomaly Detection in Smart Buildings</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Predictive Modeler, Data Analyst, Machine Learning Engineer, Research Scientist</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>8.359999999999999</v>
+        <v>48.74116332339894</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.13</v>
+        <v>3.75</v>
       </c>
       <c r="R15" t="n">
+        <v>93.45999999999999</v>
+      </c>
+      <c r="S15" t="n">
         <v>10</v>
       </c>
-      <c r="S15" t="n">
-        <v>37</v>
-      </c>
       <c r="T15" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V15" t="n">
-        <v>56.96</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
-        <v>38.46</v>
+        <v>50.50438562668363</v>
       </c>
       <c r="X15" t="n">
-        <v>33.54</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.14</v>
+        <v>38.83036818621603</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.71</v>
+        <v>78.86418786836717</v>
       </c>
       <c r="AA15" t="n">
-        <v>72.37</v>
+        <v>4.08</v>
       </c>
       <c r="AB15" t="n">
-        <v>60.52</v>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Recommendation Engine Optimization, Ethical AI Bias Detection, Predictive Maintenance for Manufacturing, GenAI-Powered Customer Insights</t>
-        </is>
+        <v>52.00097691675576</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>70.03623816990562</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.5773937702178955</v>
+        <v>9.744032172069785</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.55844763385138</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.3599043915525995</v>
+        <v>0.6527052279822989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EMP9417</t>
+          <t>EMP9425</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4942834973335266</v>
+        <v>0.1149675250053406</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000000238418579</v>
+        <v>0.5365577936172485</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4553504586219788</v>
+        <v>0.5906932353973389</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7398681640625</v>
+        <v>0.6380985975265503</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2215,7 +2184,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2224,102 +2193,103 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bachelor of Science, Master of AI, PhD in Statistics</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+          <t>Bachelor of Statistics</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Power BI</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Automated Legal Document Summarization Using NLP, Employee Attrition Risk Identification with ML, Mental Health Sentiment Analysis from Social Media Text</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Operations Analyst, Risk Analyst, Market Research Analyst, Research Analyst</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>45.79875131687083</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="R16" t="n">
+        <v>80.45999999999999</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>40.90491076630626</v>
+      </c>
+      <c r="X16" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24.38142283859218</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>68.47789853153816</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>54.91888722879858</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>42.57819406222308</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.70644307058768</v>
+      </c>
+      <c r="AE16" t="n">
         <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>TensorFlow, Deep Learning, Pandas</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>83.67</v>
-      </c>
-      <c r="P16" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8</v>
-      </c>
-      <c r="U16" t="n">
-        <v>7</v>
-      </c>
-      <c r="V16" t="n">
-        <v>57.14</v>
-      </c>
-      <c r="W16" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>69.93000000000001</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>69.47</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>86.63</v>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Deep Learning for Image Recognition, Ethical AI Bias Detection</t>
-        </is>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.5131931304931641</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17.64261120510193</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.7733670300934702</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMP9270</t>
+          <t>EMP9272</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1740098297595978</v>
+        <v>0.2129537910223007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5365577936172485</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3137591779232025</v>
+        <v>0.3847858309745789</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6023045778274536</v>
+        <v>0.614774227142334</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2327,7 +2297,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2341,105 +2311,102 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Expert</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bachelor of Applied Statistics</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>BI Beginner, Data Analyst</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+          <t>Bachelor of Statistics, Master of Data Analytics</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Excel, Tableau</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Mental Health Sentiment Analysis from Social Media Text, Sports Performance Analytics Using Wearable Device Data</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Market Research Analyst, Financial Analyst</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>36.01923004152475</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>76.42</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" t="n">
         <v>3</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Tableau</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>86.52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>97.23999999999999</v>
-      </c>
-      <c r="R17" t="n">
-        <v>31</v>
-      </c>
-      <c r="S17" t="n">
-        <v>34</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>58.57</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X17" t="n">
-        <v>40.19</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.11</v>
+        <v>26.5230620015396</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.39</v>
+        <v>60.2120411271506</v>
       </c>
       <c r="AA17" t="n">
-        <v>94.65000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="AB17" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Sales Forecasting Model, Dynamic Pricing Analytics Dashboard</t>
-        </is>
+        <v>45.51208123678679</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>46.22743958185219</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.5258554220199585</v>
+        <v>8.833693246751679</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.05696080104415</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.3258247573255136</v>
+        <v>0.4915993404406187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMP9903</t>
+          <t>EMP9902</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1829121708869934</v>
+        <v>0.1320014595985413</v>
       </c>
       <c r="C18" t="n">
-        <v>0.722848653793335</v>
+        <v>0.2401334792375565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3986642360687256</v>
+        <v>0.2420186102390289</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6048194766044617</v>
+        <v>0.6534659862518311</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2452,7 +2419,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2462,73 +2429,74 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bachelor of Science, Master of AI</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>14</v>
+          <t>Bachelor of Data Science, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Excel, Tableau</t>
+        </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Hadoop, Kafka, AWS</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>89.13</v>
+          <t>E-commerce Search Relevance Optimization with NLP, Sports Performance Analytics Using Wearable Device Data, Automated Legal Document Summarization Using NLP, Churn Prediction for Subscription Services, Employee Productivity Tracker</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Risk Analyst, Research Analyst, Business Analyst, SQL Data Analyst, BI Analyst, Financial Analyst, Statistical Analyst</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>6.83</v>
+        <v>30</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.92</v>
+        <v>12.18</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="S18" t="n">
+        <v>12</v>
+      </c>
+      <c r="T18" t="n">
         <v>22</v>
       </c>
-      <c r="T18" t="n">
-        <v>14</v>
-      </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V18" t="n">
-        <v>55.69</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
-        <v>35.71</v>
+        <v>35</v>
       </c>
       <c r="X18" t="n">
-        <v>30.94</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.93000000000001</v>
+        <v>17.55930963844513</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.8</v>
+        <v>79.15190181003013</v>
       </c>
       <c r="AA18" t="n">
-        <v>97.40000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="AB18" t="n">
-        <v>53.44</v>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Data Mesh Implementation, Data Warehouse Optimization, Automated Data Quality Framework</t>
-        </is>
+        <v>28.93539488739798</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>51.52454919882306</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.5908726453781128</v>
+        <v>8.228494132427841</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.5628511563546</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0.4281608290580377</v>
+        <v>0.3844951205276779</v>
       </c>
     </row>
     <row r="19">
@@ -2577,101 +2545,98 @@
           <t>Bachelor of Engineering</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Data Engineer, AI Ethics Certification</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
         <v>5</v>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Pandas, Deep Learning</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Pandas, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>87.75</v>
+          <t>AI-Based Wildlife Poaching Prediction Model, Customer Churn Prediction with Survival Analysis, Real Estate Price Forecasting with Geospatial Clustering, Climate Change Impact Simulation with ML, Deep Learning for Image Recognition</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Big Data Analyst, Machine Learning Engineer, Predictive Modeler, Quantitative Analyst, AI Engineer, Data Analyst, Junior Data Scientist, Research Scientist, Deep Learning Engineer, Business Intelligence Analyst</t>
+        </is>
       </c>
       <c r="P19" t="n">
+        <v>38.05545346030746</v>
+      </c>
+      <c r="Q19" t="n">
         <v>4.94</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>65.53</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>30</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>35</v>
       </c>
-      <c r="T19" t="n">
-        <v>13</v>
-      </c>
       <c r="U19" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V19" t="n">
-        <v>51.81</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>46.15</v>
+        <v>35</v>
       </c>
       <c r="X19" t="n">
-        <v>53.42</v>
+        <v>60</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.04000000000001</v>
+        <v>16.73420876626254</v>
       </c>
       <c r="Z19" t="n">
+        <v>59.61535169346533</v>
+      </c>
+      <c r="AA19" t="n">
         <v>6.12</v>
       </c>
-      <c r="AA19" t="n">
-        <v>71.65000000000001</v>
-      </c>
       <c r="AB19" t="n">
-        <v>53.55</v>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>GenAI-Powered Customer Insights, Ethical AI Bias Detection</t>
-        </is>
+        <v>38.42751743707725</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>48.53735468617729</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.5265727043151855</v>
+        <v>10.40723173633988</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.06263991507703</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0.7339538129694675</v>
+        <v>0.7700739919090458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EMP9086</t>
+          <t>EMP9091</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2529840767383575</v>
+        <v>0.4225433170795441</v>
       </c>
       <c r="C20" t="n">
-        <v>0.722848653793335</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3720384836196899</v>
+        <v>0.4947021305561066</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6947472095489502</v>
+        <v>0.6096470355987549</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2680,102 +2645,103 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bachelor of Science, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
+          <t>Bachelor of Statistics, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>27</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Pandas, Deep Learning</t>
+        </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Hadoop, Kafka, Spark</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>71.45999999999999</v>
+          <t>Climate Change Impact Simulation with ML, GenAI-Powered Customer Insights, AI-Based Wildlife Poaching Prediction Model, Energy Consumption Anomaly Detection in Smart Buildings, Real Estate Price Forecasting with Geospatial Clustering</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Quantitative Analyst, AI Engineer, Big Data Analyst, Machine Learning Engineer</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>4.57</v>
+        <v>54.8183318707442</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.26000000000001</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>99.13</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V20" t="n">
-        <v>50.24</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>66.67</v>
+        <v>52.65443012119749</v>
       </c>
       <c r="X20" t="n">
-        <v>13.75</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="Y20" t="n">
-        <v>70.38</v>
+        <v>45.23733396454002</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.61</v>
+        <v>85.38829116329067</v>
       </c>
       <c r="AA20" t="n">
-        <v>51.6</v>
+        <v>1.71</v>
       </c>
       <c r="AB20" t="n">
-        <v>54.16</v>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Data Warehouse Optimization, Real-Time IoT Data Pipeline</t>
-        </is>
+        <v>57.61209755640901</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>73.91697004219017</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.5693528652191162</v>
+        <v>10.39921703158349</v>
       </c>
       <c r="AE20" t="n">
-        <v>12.97228582847138</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0.4559848574328574</v>
+        <v>0.7686556013654235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EMP9715</t>
+          <t>EMP9720</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5206730365753174</v>
+        <v>0.07100217044353485</v>
       </c>
       <c r="C21" t="n">
-        <v>1.000000238418579</v>
+        <v>0.2401334792375565</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3709283471107483</v>
+        <v>0.3447945415973663</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5372620820999146</v>
+        <v>0.6266682147979736</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2783,7 +2749,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2792,110 +2758,111 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bachelor of Engineering, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>21</v>
+          <t>Bachelor of Science, Master of Data Analytics</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Tableau, Power BI</t>
+        </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>TensorFlow, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>53.53</v>
+          <t>Employee Productivity Tracker, Mental Health Sentiment Analysis from Social Media Text, Sports Performance Analytics Using Wearable Device Data, Automated Legal Document Summarization Using NLP, Churn Prediction for Subscription Services</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Risk Analyst, BI Analyst, SQL Data Analyst, Market Research Analyst, Junior Data Analyst, Business Analyst, Statistical Analyst, Operations Analyst, Financial Analyst, Research Analyst</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>14.01</v>
+        <v>45.83852648197251</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.65000000000001</v>
+        <v>13.64</v>
       </c>
       <c r="R21" t="n">
-        <v>6</v>
+        <v>61.16</v>
       </c>
       <c r="S21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
-        <v>41.12</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>38.91317996049693</v>
       </c>
       <c r="X21" t="n">
-        <v>36.04</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="n">
-        <v>85.90000000000001</v>
+        <v>30.05112703210965</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.69</v>
+        <v>57.92323028938245</v>
       </c>
       <c r="AA21" t="n">
-        <v>85.7</v>
+        <v>5.51</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ethical AI Bias Detection, AI-Powered Fraud Detection, Natural Language Processing for Chatbots</t>
-        </is>
+        <v>60.16440535890917</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>41.39173257947271</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.4807120561599731</v>
+        <v>11.27945284417107</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.618544547556199</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0.09215966270401343</v>
+        <v>0.9244340349673261</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EMP9911</t>
+          <t>EMP9913</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1320014595985413</v>
+        <v>0.1661183387041092</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2401334792375565</v>
+        <v>0.5365577936172485</v>
       </c>
       <c r="D22" t="n">
-        <v>0.47882080078125</v>
+        <v>0.2750107944011688</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6195207834243774</v>
+        <v>0.5444984436035156</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2909,105 +2876,102 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bachelor of Engineering, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
+          <t>Bachelor of Engineering, Master of AI</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>17</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Tableau</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Excel, Tableau</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>83.86</v>
-      </c>
+          <t>AI-Driven Content Moderation for Social Platforms, E-commerce Search Relevance Optimization with NLP, Social Media Trend Forecasting with NLP and Time-Series</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>10.24</v>
+        <v>36.34492347334526</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.15000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>72.22</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="U22" t="n">
+        <v>15</v>
+      </c>
+      <c r="V22" t="n">
         <v>6</v>
       </c>
-      <c r="V22" t="n">
-        <v>56.81</v>
-      </c>
       <c r="W22" t="n">
-        <v>85.70999999999999</v>
+        <v>37.52020874381272</v>
       </c>
       <c r="X22" t="n">
-        <v>16.94</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="n">
-        <v>78.22</v>
+        <v>30.31394302467996</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.91</v>
+        <v>63.44200206737668</v>
       </c>
       <c r="AA22" t="n">
-        <v>78.47</v>
+        <v>0.16</v>
       </c>
       <c r="AB22" t="n">
-        <v>91.62</v>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Customer Segmentation with Clustering, Sales Forecasting Model, Dynamic Pricing Analytics Dashboard</t>
-        </is>
+        <v>26.11640417307106</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>54.65276831661805</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.5159764289855957</v>
+        <v>6.931441623057647</v>
       </c>
       <c r="AE22" t="n">
-        <v>16.99602843913238</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0.7294270844752963</v>
+        <v>0.1549511672827597</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EMP9149</t>
+          <t>EMP9154</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1796475797891617</v>
+        <v>0.470674455165863</v>
       </c>
       <c r="C23" t="n">
-        <v>1.000000238418579</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3066302537918091</v>
+        <v>0.3392896056175232</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6447646021842957</v>
+        <v>0.7330794930458069</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3016,106 +2980,103 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Expert</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bachelor of Science</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Lead Data Scientist, Data Analyst</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+          <t>Bachelor of Computer Science</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>12</v>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Pandas, Deep Learning, TensorFlow</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>AWS, Spark, Hadoop</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>55.65</v>
+          <t>Climate Change Impact Simulation with ML, Personalized Learning Recommendation Engine for EdTech, AI-Powered Fraud Detection, Customer Churn Prediction with Survival Analysis, Energy Consumption Anomaly Detection in Smart Buildings</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Quantitative Analyst, Big Data Analyst, Junior Data Scientist, Research Scientist</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>11.36</v>
+        <v>40.66285128659873</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.3</v>
+        <v>4.55</v>
       </c>
       <c r="R23" t="n">
-        <v>23</v>
+        <v>73.81</v>
       </c>
       <c r="S23" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>46.75</v>
+        <v>7</v>
       </c>
       <c r="W23" t="n">
-        <v>33.33</v>
+        <v>41.90283914886599</v>
       </c>
       <c r="X23" t="n">
-        <v>41.93</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="Y23" t="n">
-        <v>70.52</v>
+        <v>21.4303506084064</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.25</v>
+        <v>62.53019859961306</v>
       </c>
       <c r="AA23" t="n">
-        <v>73.28</v>
+        <v>0.62</v>
       </c>
       <c r="AB23" t="n">
-        <v>63.25</v>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Data Warehouse Optimization, Scalable Data Lake Implementation, Data Catalog and Lineage Tracking</t>
-        </is>
+        <v>32.05371309176126</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>51.82341032887756</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.5998329520225525</v>
+        <v>8.749090454607877</v>
       </c>
       <c r="AE23" t="n">
-        <v>12.28345118657406</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0.4091735932020568</v>
+        <v>0.4766268861845639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EMP9116</t>
+          <t>EMP9125</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2214913219213486</v>
+        <v>0.2129537910223007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5365577936172485</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5006406307220459</v>
+        <v>0.4052863121032715</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6023045778274536</v>
+        <v>0.6025799512863159</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3123,7 +3084,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3137,94 +3098,95 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bachelor of Applied Statistics</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
+          <t>Bachelor of Data Science, Master of AI</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>18</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Excel, Tableau</t>
+        </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Excel</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>76.36</v>
+          <t>Social Media Trend Forecasting with NLP and Time-Series, Mental Health Sentiment Analysis from Social Media Text, Employee Productivity Tracker, AI-Driven Content Moderation for Social Platforms, E-commerce Search Relevance Optimization with NLP</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Research Analyst, Market Research Analyst, Operations Analyst, Financial Analyst, Business Analyst, Risk Analyst, Junior Data Analyst</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>11.01</v>
+        <v>52.00334792794494</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.2</v>
+        <v>13.91</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V24" t="n">
-        <v>46.86</v>
+        <v>12</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>61.24019704232938</v>
       </c>
       <c r="X24" t="n">
-        <v>28.97</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.65000000000001</v>
+        <v>47.62007694186052</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.83</v>
+        <v>73.31430875014313</v>
       </c>
       <c r="AA24" t="n">
-        <v>71.58</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.88</v>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Sustainability Metrics Dashboard, Customer Segmentation with Clustering</t>
-        </is>
+        <v>58.47721847898407</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>57.71209064199355</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.428191065788269</v>
+        <v>10.33363666983886</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.475976507057867</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.08247113978615805</v>
+        <v>0.7570496136499347</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EMP9568</t>
+          <t>EMP9599</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09911369532346725</v>
+        <v>0.2106504738330841</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.722848653793335</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4569113254547119</v>
+        <v>0.3050572276115417</v>
       </c>
       <c r="E25" t="n">
         <v>0.6113321781158447</v>
@@ -3235,7 +3197,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -3244,7 +3206,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3257,97 +3219,98 @@
           <t>Bachelor of Applied Statistics, Master of AI</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>6</v>
+      <c r="L25" t="n">
+        <v>13</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>AWS, Kafka, Spark</t>
+        </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Power BI, Excel, Tableau</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>67.03</v>
+          <t>Automated Data Quality Framework, Scalable Data Lake Implementation, Real-Time IoT Data Pipeline</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Big Data Engineer, DevOps Engineer</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>4.52</v>
+        <v>42.70408264019549</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.13</v>
+        <v>4.25</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>71.36</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U25" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>48.42</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
-        <v>50</v>
+        <v>46.75001492609313</v>
       </c>
       <c r="X25" t="n">
-        <v>24.7</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.47</v>
+        <v>33.06431751099446</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.67</v>
+        <v>54.49619473183083</v>
       </c>
       <c r="AA25" t="n">
-        <v>54.19</v>
+        <v>6.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>52.61</v>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Sales Forecasting Model, Customer Segmentation with Clustering</t>
-        </is>
+        <v>61.68303280306996</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>41.69705241653495</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.4667771458625793</v>
+        <v>8.916843164355994</v>
       </c>
       <c r="AE25" t="n">
-        <v>10.954648408258</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0.3188718949671308</v>
+        <v>0.5063146743696603</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMP9422</t>
+          <t>EMP9428</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1025438755750656</v>
+        <v>0.06224530190229416</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5392076969146729</v>
+        <v>0.2401334792375565</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4434073865413666</v>
+        <v>0.3880984485149384</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5947903394699097</v>
+        <v>0.6025799512863159</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3366,104 +3329,101 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bachelor of Data Science, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Database Administrator, Market Research Analyst</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>18</v>
+          <t>Bachelor of Data Science, Master of AI</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Power BI, Tableau</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Power BI</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>68.8</v>
+          <t>Sports Performance Analytics Using Wearable Device Data, Churn Prediction for Subscription Services, AI-Driven Content Moderation for Social Platforms, Sustainability Metrics Dashboard, Employee Productivity Tracker</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Research Analyst, Risk Analyst, Market Research Analyst, Junior Data Analyst, Operations Analyst, Statistical Analyst, BI Analyst</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>14.14</v>
+        <v>56.00938018227488</v>
       </c>
       <c r="Q26" t="n">
-        <v>92.72</v>
+        <v>4.37</v>
       </c>
       <c r="R26" t="n">
+        <v>92.91</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="n">
+        <v>35</v>
+      </c>
+      <c r="U26" t="n">
+        <v>15</v>
+      </c>
+      <c r="V26" t="n">
         <v>13</v>
       </c>
-      <c r="S26" t="n">
-        <v>31</v>
-      </c>
-      <c r="T26" t="n">
-        <v>14</v>
-      </c>
-      <c r="U26" t="n">
-        <v>6</v>
-      </c>
-      <c r="V26" t="n">
-        <v>51.23</v>
-      </c>
       <c r="W26" t="n">
-        <v>42.86</v>
+        <v>44.50208132201766</v>
       </c>
       <c r="X26" t="n">
-        <v>31.18</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="Y26" t="n">
-        <v>68.15000000000001</v>
+        <v>50.41012226968916</v>
       </c>
       <c r="Z26" t="n">
-        <v>3.4</v>
+        <v>73.3707947184221</v>
       </c>
       <c r="AA26" t="n">
-        <v>73.83</v>
+        <v>4.48</v>
       </c>
       <c r="AB26" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Marketing Campaign Performance Analysis, Employee Productivity Tracker, Churn Prediction for Subscription Services</t>
-        </is>
+        <v>70.31478207927424</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>52.41211948028005</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.5781537294387817</v>
+        <v>10.6519326688152</v>
       </c>
       <c r="AE26" t="n">
-        <v>12.68012218470111</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0.4361302382030625</v>
+        <v>0.8133795782267317</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMP9177</t>
+          <t>EMP9180</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.09853778779506683</v>
+        <v>0.2321738004684448</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4657661318778992</v>
+        <v>0.4798399806022644</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6031081676483154</v>
+        <v>0.5618050098419189</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3482,96 +3442,93 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bachelor of Data Science, Master of Data Analytics</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>BI Beginner</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+          <t>Bachelor of Science, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>21</v>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Power BI, Tableau, Excel</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>88.45999999999999</v>
+          <t>Sports Performance Analytics Using Wearable Device Data, E-commerce Search Relevance Optimization with NLP, Sustainability Metrics Dashboard, Customer Segmentation with Clustering, Automated Legal Document Summarization Using NLP</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Operations Analyst, Financial Analyst, Junior Data Analyst, Statistical Analyst, Research Analyst, Business Analyst, Market Research Analyst</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>8.949999999999999</v>
+        <v>47.68486002638043</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.48999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="R27" t="n">
+        <v>96.03</v>
+      </c>
+      <c r="S27" t="n">
+        <v>14</v>
+      </c>
+      <c r="T27" t="n">
+        <v>35</v>
+      </c>
+      <c r="U27" t="n">
         <v>15</v>
       </c>
-      <c r="S27" t="n">
-        <v>36</v>
-      </c>
-      <c r="T27" t="n">
-        <v>6</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
       <c r="V27" t="n">
-        <v>51.04</v>
+        <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>33.33</v>
+        <v>56.86800921489449</v>
       </c>
       <c r="X27" t="n">
-        <v>36.98</v>
+        <v>60</v>
       </c>
       <c r="Y27" t="n">
-        <v>80.39</v>
+        <v>37.97037484744382</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.85</v>
+        <v>76.74810087965173</v>
       </c>
       <c r="AA27" t="n">
-        <v>67.97</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="AB27" t="n">
-        <v>73.77</v>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Dynamic Pricing Analytics Dashboard, Marketing Campaign Performance Analysis, Sales Forecasting Model</t>
-        </is>
+        <v>52.30507037763942</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>56.201728444649</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.5352275371551514</v>
+        <v>8.853083872773251</v>
       </c>
       <c r="AE27" t="n">
-        <v>13.24056345553055</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0.4742162501701452</v>
+        <v>0.4950309678579594</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EMP9391</t>
+          <t>EMP9405</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1393617689609528</v>
+        <v>0.2177380919456482</v>
       </c>
       <c r="C28" t="n">
-        <v>1.000000238418579</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3879002928733826</v>
+        <v>0.3269120454788208</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6947472095489502</v>
+        <v>0.7211951017379761</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3579,7 +3536,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3593,109 +3550,106 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bachelor of Science, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Data Analyst</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>11</v>
+          <t>Bachelor of Science, PhD in Statistics</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Kafka, Hadoop</t>
+        </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Hadoop, AWS</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>84.81999999999999</v>
+          <t>Retail Inventory Optimization with Reinforcement Learning, Scalable Data Lake Implementation</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Cloud Data Engineer, Big Data Engineer</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>10.08</v>
+        <v>51.6964757112578</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.63</v>
+        <v>6.77</v>
       </c>
       <c r="R28" t="n">
-        <v>14</v>
+        <v>88.75</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>50.29</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>46.62146847388055</v>
       </c>
       <c r="X28" t="n">
-        <v>42.95</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.69</v>
+        <v>29.01125512526493</v>
       </c>
       <c r="Z28" t="n">
-        <v>4.84</v>
+        <v>72.0675584856063</v>
       </c>
       <c r="AA28" t="n">
-        <v>64.73</v>
+        <v>4.64</v>
       </c>
       <c r="AB28" t="n">
-        <v>62.94</v>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Automated Data Quality Framework, Scalable Data Lake Implementation, Data Catalog and Lineage Tracking</t>
-        </is>
+        <v>62.21575623755439</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>54.17776386790834</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.6041715145111084</v>
+        <v>11.39331503559456</v>
       </c>
       <c r="AE28" t="n">
-        <v>9.452925174952089</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0.2168190091218596</v>
+        <v>0.9445846282206163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EMP9866</t>
+          <t>EMP9864</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.21585713326931</v>
+        <v>0.1615367531776428</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7875052094459534</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4885475635528564</v>
+        <v>0.3194960355758667</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5381187200546265</v>
+        <v>0.5990755558013916</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3704,106 +3658,103 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bachelor of Engineering</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Database Administrator</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>10</v>
+          <t>Bachelor of Science, Master of AI, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>5</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Spark, AWS</t>
+        </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Tableau, Excel</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>84.37</v>
+          <t>Data Mesh Implementation, Real-Time IoT Data Pipeline</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Software Engineer (Data)</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>3.75</v>
+        <v>43.7907351454753</v>
       </c>
       <c r="Q29" t="n">
-        <v>85.61</v>
+        <v>2.22</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>77.12</v>
       </c>
       <c r="S29" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V29" t="n">
-        <v>57.98</v>
+        <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>33.33</v>
+        <v>43.89368648462065</v>
       </c>
       <c r="X29" t="n">
-        <v>34.67</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y29" t="n">
-        <v>96.44</v>
+        <v>18.81096478536512</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.93</v>
+        <v>58.68593450128159</v>
       </c>
       <c r="AA29" t="n">
-        <v>55.3</v>
+        <v>0.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>61.65</v>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Marketing Campaign Performance Analysis, Sustainability Metrics Dashboard</t>
-        </is>
+        <v>59.32040721448482</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>45.66155767094799</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.4702121019363403</v>
+        <v>9.699060678237762</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.93212099272724</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0.385298181693828</v>
+        <v>0.6447464642445497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMP9724</t>
+          <t>EMP9731</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.06650952249765396</v>
+        <v>0.4483639597892761</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2401334792375565</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4619185328483582</v>
+        <v>0.4411556720733643</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7181317806243896</v>
+        <v>0.7604461312294006</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3811,7 +3762,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -3820,102 +3771,103 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bachelor of Data Science, PhD in Statistics</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>14</v>
+          <t>Bachelor of Data Science, Master of Data Science, PhD in Statistics</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Deep Learning, Pandas</t>
+        </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Tableau, Power BI</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>79.28</v>
+          <t>Personalized Learning Recommendation Engine for EdTech, Real Estate Price Forecasting with Geospatial Clustering</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Predictive Modeler, AI Engineer</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>8.869999999999999</v>
+        <v>34.81823062204754</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.77</v>
+        <v>13.97</v>
       </c>
       <c r="R30" t="n">
-        <v>6</v>
+        <v>64.19</v>
       </c>
       <c r="S30" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
-        <v>59.42</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>75</v>
+        <v>37.88223778851891</v>
       </c>
       <c r="X30" t="n">
-        <v>34.07</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="Y30" t="n">
-        <v>73.23999999999999</v>
+        <v>22.11327679595499</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.369999999999999</v>
+        <v>56.93646722998798</v>
       </c>
       <c r="AA30" t="n">
-        <v>65.48999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="AB30" t="n">
-        <v>75.38</v>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Dynamic Pricing Analytics Dashboard, Employee Productivity Tracker, Sales Forecasting Model</t>
-        </is>
+        <v>29.1315810339055</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>51.05142716240482</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.4832581281661987</v>
+        <v>8.032501448060287</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.82722258376099</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0.7179555134786185</v>
+        <v>0.3498096045198049</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EMP9543</t>
+          <t>EMP9561</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2242893874645233</v>
+        <v>0.4225433170795441</v>
       </c>
       <c r="C31" t="n">
-        <v>0.722848653793335</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5394208431243896</v>
+        <v>0.3907275199890137</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6610252261161804</v>
+        <v>0.6266682147979736</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3923,7 +3875,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3932,110 +3884,111 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bachelor of Applied Statistics, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>6</v>
+          <t>Bachelor of Science, Master of Data Analytics</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>24</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Pandas, Deep Learning</t>
+        </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Spark, AWS, Kafka</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>55.51</v>
+          <t>Climate Change Impact Simulation with ML, AI-Based Wildlife Poaching Prediction Model, GenAI-Powered Customer Insights, Energy Consumption Anomaly Detection in Smart Buildings, Predictive Maintenance for Manufacturing</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Predictive Modeler, Data Analyst</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>5.84</v>
+        <v>41.4318321474511</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.64</v>
+        <v>4.53</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>27</v>
+      </c>
+      <c r="U31" t="n">
+        <v>15</v>
+      </c>
+      <c r="V31" t="n">
         <v>7</v>
       </c>
-      <c r="T31" t="n">
-        <v>8</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
-      <c r="V31" t="n">
-        <v>35.04</v>
-      </c>
       <c r="W31" t="n">
-        <v>37.5</v>
+        <v>52.6917529152289</v>
       </c>
       <c r="X31" t="n">
-        <v>17.35</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.59</v>
+        <v>37.36273168488194</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.57</v>
+        <v>73.60197779800683</v>
       </c>
       <c r="AA31" t="n">
-        <v>54.63</v>
+        <v>5</v>
       </c>
       <c r="AB31" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Data Catalog and Lineage Tracking, Real-Time IoT Data Pipeline</t>
-        </is>
+        <v>38.04616123693795</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>58.23675251749694</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.5774613618850708</v>
+        <v>6.964484407846497</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.750340541589919</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0.1690733341566344</v>
+        <v>0.1607988653457599</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMP9695</t>
+          <t>EMP9700</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2257879227399826</v>
+        <v>0.1796475797891617</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5392076969146729</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3392896056175232</v>
+        <v>0.3363142609596252</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7580140233039856</v>
+        <v>0.7330794930458069</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4044,106 +3997,99 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, Master of Data Science, PhD in Statistics</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Database Administrator</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+          <t>Bachelor of Computer Science</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
         <v>1</v>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>AWS, Spark, Hadoop</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Excel</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>83.47</v>
-      </c>
+          <t>Real-Time IoT Data Pipeline</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>3.24</v>
+        <v>30</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.63</v>
+        <v>11.71</v>
       </c>
       <c r="R32" t="n">
-        <v>14</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>56.55</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>23.08</v>
+        <v>35</v>
       </c>
       <c r="X32" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.86</v>
+        <v>2.657392342395445</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.789999999999999</v>
+        <v>58.89620208318354</v>
       </c>
       <c r="AA32" t="n">
-        <v>50.53</v>
+        <v>1.73</v>
       </c>
       <c r="AB32" t="n">
-        <v>81.14</v>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Employee Productivity Tracker, Sales Forecasting Model, Dynamic Pricing Analytics Dashboard, Customer Segmentation with Clustering</t>
-        </is>
+        <v>4.059064012005743</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>43.33540154326771</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.5773701667785645</v>
+        <v>6.470245941662473</v>
       </c>
       <c r="AE32" t="n">
-        <v>11.42482837358219</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0.3508240025617717</v>
+        <v>0.07333174234649675</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EMP9249</t>
+          <t>EMP9271</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1904425919055939</v>
+        <v>0.5244844555854797</v>
       </c>
       <c r="C33" t="n">
         <v>0.7875052094459534</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5671835541725159</v>
+        <v>0.3943652808666229</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6403619050979614</v>
+        <v>0.6947472095489502</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4151,7 +4097,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4160,7 +4106,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4170,92 +4116,93 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bachelor of Data Science</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>5</v>
+          <t>Bachelor of Science, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>8</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Deep Learning, TensorFlow</t>
+        </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Power BI, Excel</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>64.95</v>
+          <t>Energy Consumption Anomaly Detection in Smart Buildings, Customer Churn Prediction with Survival Analysis, Predictive Maintenance for Manufacturing</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Quantitative Analyst, Deep Learning Engineer</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>4.75</v>
+        <v>44.67997122635003</v>
       </c>
       <c r="Q33" t="n">
-        <v>86.84999999999999</v>
+        <v>4.28</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>85.23</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V33" t="n">
-        <v>45.33</v>
+        <v>8</v>
       </c>
       <c r="W33" t="n">
-        <v>66.67</v>
+        <v>41.48190266741828</v>
       </c>
       <c r="X33" t="n">
-        <v>26.51</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y33" t="n">
-        <v>93.43000000000001</v>
+        <v>40.39503719895948</v>
       </c>
       <c r="Z33" t="n">
-        <v>4.15</v>
+        <v>78.3238137475266</v>
       </c>
       <c r="AA33" t="n">
-        <v>88.23999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="AB33" t="n">
-        <v>58.73</v>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Sustainability Metrics Dashboard, Sales Forecasting Model, Employee Productivity Tracker</t>
-        </is>
+        <v>56.77748148859567</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>59.02979555340257</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.4755962789058685</v>
+        <v>9.89001003064536</v>
       </c>
       <c r="AE33" t="n">
-        <v>12.81788338586757</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0.4454921018439403</v>
+        <v>0.6785394440233561</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMP9606</t>
+          <t>EMP9616</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2282173931598663</v>
+        <v>0.2359613478183746</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7875052094459534</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3396599888801575</v>
+        <v>0.4229696691036224</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6447646021842957</v>
+        <v>0.6986917853355408</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -4263,7 +4210,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4272,106 +4219,103 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bachelor of Science</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Market Research Analyst</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
+          <t>Bachelor of Statistics, Master of Data Science, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>17</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Kafka, Spark</t>
+        </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Excel, Tableau</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>53.18</v>
+          <t>Predictive Equipment Failure in Manufacturing Plants, Retail Inventory Optimization with Reinforcement Learning, Scalable Data Lake Implementation, Real-Time IoT Data Pipeline, Automated Data Quality Framework</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>BI Developer, Database Administrator, Cloud Data Engineer, Software Engineer (Data), Big Data Engineer, Junior Data Engineer, Machine Learning Engineer, ETL Developer, Data Warehouse Developer, DevOps Engineer</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>5.94</v>
+        <v>55.2152326208538</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.55</v>
+        <v>6.4</v>
       </c>
       <c r="R34" t="n">
-        <v>17</v>
+        <v>85.95</v>
       </c>
       <c r="S34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T34" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V34" t="n">
-        <v>41.37</v>
+        <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>54.74980988895795</v>
       </c>
       <c r="X34" t="n">
-        <v>22.71</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.81</v>
+        <v>46.26299328429067</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.04</v>
+        <v>84.81843050102924</v>
       </c>
       <c r="AA34" t="n">
-        <v>82.23999999999999</v>
+        <v>4.43</v>
       </c>
       <c r="AB34" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Sustainability Metrics Dashboard, Customer Segmentation with Clustering, Marketing Campaign Performance Analysis</t>
-        </is>
+        <v>66.678938106255</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>67.20794446279902</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.4739995002746582</v>
+        <v>11.34833345732983</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.295032319101979</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0.0701746818581705</v>
+        <v>0.9366240798052736</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EMP9154</t>
+          <t>EMP9164</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.470674455165863</v>
+        <v>0.4225433170795441</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7875052094459534</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3392896056175232</v>
+        <v>0.4460516571998596</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7330794930458069</v>
+        <v>0.6403619050979614</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4379,7 +4323,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4393,97 +4337,98 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Senior</t>
+          <t>Mid-Level</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>12</v>
+          <t>Bachelor of Data Science</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Pandas, Deep Learning</t>
+        </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Pandas, Deep Learning, TensorFlow</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>86.77</v>
+          <t>Predictive Maintenance for Manufacturing, Deep Learning for Image Recognition</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>AI Engineer, Machine Learning Engineer</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>4.55</v>
+        <v>38.22178301128861</v>
       </c>
       <c r="Q35" t="n">
-        <v>73.81</v>
+        <v>12.35</v>
       </c>
       <c r="R35" t="n">
-        <v>8</v>
+        <v>88.36</v>
       </c>
       <c r="S35" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>60.38</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
-        <v>60</v>
+        <v>39.05722363748308</v>
       </c>
       <c r="X35" t="n">
-        <v>28.07</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="n">
-        <v>76.19</v>
+        <v>20.10727457346649</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.62</v>
+        <v>68.91191895939872</v>
       </c>
       <c r="AA35" t="n">
-        <v>91.05</v>
+        <v>4.48</v>
       </c>
       <c r="AB35" t="n">
-        <v>54.62</v>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Deep Learning for Image Recognition, GenAI-Powered Customer Insights, Predictive Maintenance for Manufacturing</t>
-        </is>
+        <v>57.84399650898641</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>43.49116733496865</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.5614350438117981</v>
+        <v>10.07916866070502</v>
       </c>
       <c r="AE35" t="n">
-        <v>14.44598019510185</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0.5561329803579306</v>
+        <v>0.7120155133579518</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EMP9502</t>
+          <t>EMP9518</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.4138237833976746</v>
+        <v>0.2296485155820847</v>
       </c>
       <c r="C36" t="n">
         <v>0.5392076969146729</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3182816505432129</v>
+        <v>0.3536708056926727</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6947472095489502</v>
+        <v>0.5878911018371582</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -4491,7 +4436,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4500,83 +4445,84 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Expert</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bachelor of Science, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>27</v>
+          <t>Bachelor of Applied Statistics, Master of Data Analytics</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Hadoop, Kafka</t>
+        </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Pandas, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>96.72</v>
+          <t>Automated Data Quality Framework, Retail Inventory Optimization with Reinforcement Learning, Blockchain Transaction Fraud Detection System</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>DevOps Engineer, Data Warehouse Developer, ETL Developer, BI Developer</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0.73</v>
+        <v>35.33725358394747</v>
       </c>
       <c r="Q36" t="n">
-        <v>68.41</v>
+        <v>14.19</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>89.33</v>
       </c>
       <c r="S36" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="U36" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="V36" t="n">
-        <v>60.81</v>
+        <v>10</v>
       </c>
       <c r="W36" t="n">
-        <v>77.78</v>
+        <v>49.07584797182561</v>
       </c>
       <c r="X36" t="n">
-        <v>46.33</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y36" t="n">
-        <v>61.58</v>
+        <v>29.57006306847976</v>
       </c>
       <c r="Z36" t="n">
-        <v>4.03</v>
+        <v>75.35269937399354</v>
       </c>
       <c r="AA36" t="n">
-        <v>82.45999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AB36" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>GenAI-Powered Customer Insights, Natural Language Processing for Chatbots, Predictive Maintenance for Manufacturing</t>
-        </is>
+        <v>50.27985088424398</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>61.63187394738806</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.5690912008285522</v>
+        <v>9.171090675898165</v>
       </c>
       <c r="AE36" t="n">
-        <v>19.32473995239254</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0.8876797670992033</v>
+        <v>0.5513097524258379</v>
       </c>
     </row>
     <row r="37">
@@ -4625,70 +4571,67 @@
           <t>Bachelor of Applied Statistics, Master of AI</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
         <v>10</v>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Kafka, Spark, AWS</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Kafka, Spark, AWS</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>88.90000000000001</v>
-      </c>
+          <t>Blockchain Transaction Fraud Detection System, Batch and Streaming Data Processing, Smart Grid Load Balancing Using Predictive Analytics</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
+        <v>34.74215957746851</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3.31</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>66.58</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>0</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>10</v>
       </c>
-      <c r="T37" t="n">
-        <v>11</v>
-      </c>
       <c r="U37" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="V37" t="n">
-        <v>56.12</v>
+        <v>6</v>
       </c>
       <c r="W37" t="n">
-        <v>81.81999999999999</v>
+        <v>46.69754924579552</v>
       </c>
       <c r="X37" t="n">
-        <v>40.2</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.42</v>
+        <v>19.76149794342006</v>
       </c>
       <c r="Z37" t="n">
+        <v>57.35534622141756</v>
+      </c>
+      <c r="AA37" t="n">
         <v>4.19</v>
       </c>
-      <c r="AA37" t="n">
-        <v>75.86</v>
-      </c>
       <c r="AB37" t="n">
-        <v>54.21</v>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Automated Data Quality Framework, Batch and Streaming Data Processing, Data Catalog and Lineage Tracking, Scalable Data Lake Implementation</t>
-        </is>
+        <v>35.36448296230927</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>47.80338437734323</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.5761197209358215</v>
+        <v>7.105716850813192</v>
       </c>
       <c r="AE37" t="n">
-        <v>16.80870028643499</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.7166967902647267</v>
+        <v>0.1857932684642229</v>
       </c>
     </row>
     <row r="38">
@@ -4737,74 +4680,71 @@
           <t>Bachelor of Computer Science, Master of Data Analytics</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Statistical Analyst</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
         <v>14</v>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Deep Learning, TensorFlow, Pandas</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Deep Learning, TensorFlow, Pandas</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>81.59</v>
+          <t>Predictive Maintenance for Manufacturing, Real Estate Price Forecasting with Geospatial Clustering, Deep Learning for Image Recognition, GenAI-Powered Customer Insights, AI-Based Wildlife Poaching Prediction Model</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Business Intelligence Analyst, Research Scientist, Data Analyst, Big Data Analyst, Machine Learning Engineer, AI Engineer, Quantitative Analyst, Junior Data Scientist, Deep Learning Engineer, Predictive Modeler</t>
+        </is>
       </c>
       <c r="P38" t="n">
+        <v>42.8022234341466</v>
+      </c>
+      <c r="Q38" t="n">
         <v>7.91</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>83.3</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>17</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>31</v>
       </c>
-      <c r="T38" t="n">
-        <v>10</v>
-      </c>
       <c r="U38" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V38" t="n">
-        <v>60.13</v>
+        <v>11</v>
       </c>
       <c r="W38" t="n">
-        <v>90</v>
+        <v>37.04407989685188</v>
       </c>
       <c r="X38" t="n">
-        <v>45.04</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.09999999999999</v>
+        <v>32.01608180268486</v>
       </c>
       <c r="Z38" t="n">
+        <v>69.27264361023109</v>
+      </c>
+      <c r="AA38" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="AA38" t="n">
-        <v>59.47</v>
-      </c>
       <c r="AB38" t="n">
-        <v>70.06</v>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Natural Language Processing for Chatbots, Predictive Maintenance for Manufacturing, Recommendation Engine Optimization</t>
-        </is>
+        <v>56.07151031294921</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51.21300599432077</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.59405517578125</v>
+        <v>9.623822585604287</v>
       </c>
       <c r="AE38" t="n">
-        <v>19.76354890400552</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0.9174999888642087</v>
+        <v>0.6314313138609458</v>
       </c>
     </row>
     <row r="39">
@@ -4853,93 +4793,90 @@
           <t>Bachelor of Data Science, Master of Data Science, PhD in Statistics</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Database Administrator</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
         <v>14</v>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Tableau</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tableau</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>71.39</v>
+          <t>Automated Legal Document Summarization Using NLP, Social Media Trend Forecasting with NLP and Time-Series, Sports Performance Analytics Using Wearable Device Data, Churn Prediction for Subscription Services, Mental Health Sentiment Analysis from Social Media Text</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Junior Data Analyst, Financial Analyst, Research Analyst, Operations Analyst, Statistical Analyst, SQL Data Analyst, BI Analyst, Risk Analyst, Market Research Analyst, Business Analyst</t>
+        </is>
       </c>
       <c r="P39" t="n">
+        <v>52.92840209998691</v>
+      </c>
+      <c r="Q39" t="n">
         <v>2.96</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>96.43000000000001</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>23</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>37</v>
       </c>
-      <c r="T39" t="n">
-        <v>7</v>
-      </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V39" t="n">
-        <v>46.02</v>
+        <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>14.29</v>
+        <v>56.71734714558409</v>
       </c>
       <c r="X39" t="n">
-        <v>35.64</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="Y39" t="n">
-        <v>80.67</v>
+        <v>32.12666613334884</v>
       </c>
       <c r="Z39" t="n">
+        <v>78.17479034499713</v>
+      </c>
+      <c r="AA39" t="n">
         <v>2.63</v>
       </c>
-      <c r="AA39" t="n">
-        <v>60.49</v>
-      </c>
       <c r="AB39" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Sustainability Metrics Dashboard, Sales Forecasting Model, Customer Segmentation with Clustering</t>
-        </is>
+        <v>61.77180994092514</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>50.28336520847806</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.6110262870788574</v>
+        <v>11.6217845383602</v>
       </c>
       <c r="AE39" t="n">
-        <v>10.46729467607256</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0.2857527064948989</v>
+        <v>0.9850176812249161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EMP9442</t>
+          <t>EMP9449</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4942834973335266</v>
+        <v>0.1611726582050323</v>
       </c>
       <c r="C40" t="n">
-        <v>1.000000238418579</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D40" t="n">
-        <v>0.319604218006134</v>
+        <v>0.4093918800354004</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6534659862518311</v>
+        <v>0.6619267463684082</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4947,7 +4884,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -4956,102 +4893,103 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bachelor of Data Science, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>2</v>
+          <t>Bachelor of Applied Statistics, PhD in Statistics</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>10</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Spark, AWS</t>
+        </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>TensorFlow, Deep Learning, Pandas</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>76.52</v>
+          <t>Batch and Streaming Data Processing, Predictive Equipment Failure in Manufacturing Plants, Scalable Data Lake Implementation, Data Mesh Implementation, Retail Inventory Optimization with Reinforcement Learning</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Data Warehouse Developer, DevOps Engineer, BI Developer, Cloud Data Engineer, Big Data Engineer, Junior Data Engineer, Database Administrator, ETL Developer, Machine Learning Engineer, Software Engineer (Data)</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>9.94</v>
+        <v>37.95524010561827</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.61</v>
+        <v>9.35</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>89.67</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="T40" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="U40" t="n">
+        <v>15</v>
+      </c>
+      <c r="V40" t="n">
         <v>7</v>
       </c>
-      <c r="V40" t="n">
-        <v>51.94</v>
-      </c>
       <c r="W40" t="n">
-        <v>53.85</v>
+        <v>35.34463090164157</v>
       </c>
       <c r="X40" t="n">
-        <v>19.97</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.23</v>
+        <v>21.81685896737859</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.25</v>
+        <v>75.68616629949453</v>
       </c>
       <c r="AA40" t="n">
-        <v>82.59</v>
+        <v>0.51</v>
       </c>
       <c r="AB40" t="n">
-        <v>88.97</v>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Predictive Maintenance for Manufacturing, Deep Learning for Image Recognition, AI-Powered Fraud Detection, GenAI-Powered Customer Insights</t>
-        </is>
+        <v>32.12158986265847</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>50.74143453764527</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.6134519577026367</v>
+        <v>9.906789593590325</v>
       </c>
       <c r="AE40" t="n">
-        <v>13.40957210729934</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0.4857016026394245</v>
+        <v>0.6815089824069482</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EMP9931</t>
+          <t>EMP9935</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2079861760139465</v>
+        <v>0.4584171772003174</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7875052094459534</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3331243991851807</v>
+        <v>0.4695839285850525</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7330794930458069</v>
+        <v>0.6471908092498779</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -5059,7 +4997,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -5068,7 +5006,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Data Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5078,92 +5016,89 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>4</v>
+          <t>Bachelor of Applied Statistics, Master of AI, PhD in AI &amp; Automation</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>15</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>TensorFlow, Pandas</t>
+        </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Excel, Power BI</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>58.6</v>
-      </c>
+          <t>Ethical AI Bias Detection, GenAI-Powered Customer Insights, Energy Consumption Anomaly Detection in Smart Buildings</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>8.210000000000001</v>
+        <v>45.74022664984174</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.58</v>
+        <v>2.77</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="S41" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U41" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V41" t="n">
-        <v>41.63</v>
+        <v>11</v>
       </c>
       <c r="W41" t="n">
-        <v>92.31</v>
+        <v>44.70083615374254</v>
       </c>
       <c r="X41" t="n">
-        <v>17.93</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.81</v>
+        <v>45.11409227284038</v>
       </c>
       <c r="Z41" t="n">
-        <v>5.15</v>
+        <v>69.45973230696002</v>
       </c>
       <c r="AA41" t="n">
-        <v>55.12</v>
+        <v>5.99</v>
       </c>
       <c r="AB41" t="n">
-        <v>87.59</v>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Sustainability Metrics Dashboard, Dynamic Pricing Analytics Dashboard</t>
-        </is>
+        <v>59.69856559478391</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>52.00153026038737</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.4334668517112732</v>
+        <v>8.787829583656158</v>
       </c>
       <c r="AE41" t="n">
-        <v>16.32979474997664</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0.6841517174051547</v>
+        <v>0.4834826863644082</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EMP9799</t>
+          <t>EMP9798</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5302007794380188</v>
+        <v>0.1514674425125122</v>
       </c>
       <c r="C42" t="n">
-        <v>0.722848653793335</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2362116277217865</v>
+        <v>0.3607481718063354</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6775242686271667</v>
+        <v>0.6534659862518311</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -5171,7 +5106,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -5180,102 +5115,103 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science, Master of AI</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>11</v>
+          <t>Bachelor of Data Science, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>24</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>AWS, Spark</t>
+        </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Deep Learning, TensorFlow</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>68.34</v>
+          <t>Smart Grid Load Balancing Using Predictive Analytics, Automated Data Quality Framework, Batch and Streaming Data Processing, Predictive Equipment Failure in Manufacturing Plants, Retail Inventory Optimization with Reinforcement Learning</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>DevOps Engineer, BI Developer</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>3.56</v>
+        <v>41.33164402095325</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.89</v>
+        <v>7.6</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="S42" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V42" t="n">
-        <v>47.64</v>
+        <v>6</v>
       </c>
       <c r="W42" t="n">
-        <v>90</v>
+        <v>36.21092067903305</v>
       </c>
       <c r="X42" t="n">
-        <v>36.08</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="n">
-        <v>68.93000000000001</v>
+        <v>27.20857350693421</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.220000000000001</v>
+        <v>70.9408311872491</v>
       </c>
       <c r="AA42" t="n">
-        <v>71.29000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AB42" t="n">
-        <v>99.28</v>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Deep Learning for Image Recognition, AI-Powered Fraud Detection</t>
-        </is>
+        <v>36.45666441508929</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>58.37275433576246</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.5239489078521729</v>
+        <v>7.15463629653975</v>
       </c>
       <c r="AE42" t="n">
-        <v>18.5862872059652</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0.8374965960848114</v>
+        <v>0.1944507151608696</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EMP9092</t>
+          <t>EMP9107</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4264350831508636</v>
+        <v>0.1514674425125122</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7875052094459534</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3897541463375092</v>
+        <v>0.3116801083087921</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7330794930458069</v>
+        <v>0.7451770305633545</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -5283,7 +5219,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -5292,7 +5228,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5302,100 +5238,101 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>20</v>
+          <t>Bachelor of Computer Science, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>14</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>AWS, Spark</t>
+        </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Pandas, TensorFlow</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>82.29000000000001</v>
+          <t>Blockchain Transaction Fraud Detection System, Batch and Streaming Data Processing, Scalable Data Lake Implementation, Real-Time IoT Data Pipeline, Retail Inventory Optimization with Reinforcement Learning</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Database Administrator, Big Data Engineer, BI Developer, Cloud Data Engineer, Data Warehouse Developer, Software Engineer (Data), Junior Data Engineer, DevOps Engineer, Machine Learning Engineer, ETL Developer</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>43.20712855300125</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.45999999999999</v>
+        <v>7.45</v>
       </c>
       <c r="R43" t="n">
-        <v>10</v>
+        <v>65.77</v>
       </c>
       <c r="S43" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T43" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V43" t="n">
-        <v>53.73</v>
+        <v>11</v>
       </c>
       <c r="W43" t="n">
-        <v>20</v>
+        <v>45.48957124436607</v>
       </c>
       <c r="X43" t="n">
-        <v>32.39</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.84</v>
+        <v>31.71636547508691</v>
       </c>
       <c r="Z43" t="n">
-        <v>4.08</v>
+        <v>63.12429346683976</v>
       </c>
       <c r="AA43" t="n">
-        <v>83.06999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="AB43" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Predictive Maintenance for Manufacturing, GenAI-Powered Customer Insights</t>
-        </is>
+        <v>64.52571091973151</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>45.8532629504155</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.5293045043945312</v>
+        <v>9.676589506963658</v>
       </c>
       <c r="AE43" t="n">
-        <v>11.11091401160263</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0.3294912657180014</v>
+        <v>0.6407696618783865</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EMP9614</t>
+          <t>EMP9631</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2634350061416626</v>
+        <v>0.2257879227399826</v>
       </c>
       <c r="C44" t="n">
-        <v>1.000000238418579</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3608727157115936</v>
+        <v>0.3686283230781555</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6031081676483154</v>
+        <v>0.6947472095489502</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -5404,7 +5341,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5414,100 +5351,101 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bachelor of Data Science, Master of Data Analytics</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>28</v>
+          <t>Bachelor of Science, Master of Data Science</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>15</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Excel</t>
+        </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Spark, Kafka</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>59.46</v>
+          <t>Automated Legal Document Summarization Using NLP, Customer Segmentation with Clustering, Sustainability Metrics Dashboard, Employee Productivity Tracker, E-commerce Search Relevance Optimization with NLP</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Junior Data Analyst, Financial Analyst, Market Research Analyst, Risk Analyst, Business Analyst, Statistical Analyst, Operations Analyst, BI Analyst, SQL Data Analyst, Research Analyst</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>8.6</v>
+        <v>51.02414132489122</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.61</v>
+        <v>1.92</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="S44" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="T44" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="U44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V44" t="n">
-        <v>51.12</v>
+        <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>100</v>
+        <v>50.95290441878988</v>
       </c>
       <c r="X44" t="n">
-        <v>42.18</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.73999999999999</v>
+        <v>35.4107133521341</v>
       </c>
       <c r="Z44" t="n">
-        <v>3.52</v>
+        <v>72.47848296114181</v>
       </c>
       <c r="AA44" t="n">
-        <v>61.7</v>
+        <v>8.59</v>
       </c>
       <c r="AB44" t="n">
-        <v>52.49</v>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Automated Data Quality Framework, Batch and Streaming Data Processing</t>
-        </is>
+        <v>64.67141083121564</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>61.42468158335367</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.5676168203353882</v>
+        <v>10.17345541633125</v>
       </c>
       <c r="AE44" t="n">
-        <v>17.75852112934332</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0.7812439424329701</v>
+        <v>0.7287017727566496</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EMP9913</t>
+          <t>EMP9918</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1661183387041092</v>
+        <v>0.0612010695040226</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5365577936172485</v>
+        <v>0.2401334792375565</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2750107944011688</v>
+        <v>0.4269659817218781</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5444984436035156</v>
+        <v>0.7685937881469727</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -5521,105 +5459,106 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bachelor of Engineering, Master of AI</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>17</v>
+          <t>Bachelor of Science, Master of Data Science, PhD in Statistics</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>18</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Power BI, Tableau</t>
+        </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Tableau</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>56.35</v>
+          <t>Social Media Trend Forecasting with NLP and Time-Series, Churn Prediction for Subscription Services, Employee Productivity Tracker, Customer Segmentation with Clustering, Employee Attrition Risk Identification with ML</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>BI Analyst, Research Analyst</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0.88</v>
+        <v>44.1462054459444</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.22</v>
+        <v>2.8</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.02</v>
       </c>
       <c r="S45" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V45" t="n">
-        <v>41.89</v>
+        <v>8</v>
       </c>
       <c r="W45" t="n">
-        <v>83.33</v>
+        <v>49.10860425952352</v>
       </c>
       <c r="X45" t="n">
-        <v>18.89</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="Y45" t="n">
-        <v>90.43000000000001</v>
+        <v>37.76386293860092</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.16</v>
+        <v>65.97665525626641</v>
       </c>
       <c r="AA45" t="n">
-        <v>77.89</v>
+        <v>3.94</v>
       </c>
       <c r="AB45" t="n">
-        <v>68.97</v>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Employee Productivity Tracker, Marketing Campaign Performance Analysis, Sustainability Metrics Dashboard</t>
-        </is>
+        <v>44.88003461497505</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>48.49363327309395</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.4762181341648102</v>
+        <v>7.838748521728203</v>
       </c>
       <c r="AE45" t="n">
-        <v>13.6917421645708</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0.504877085847662</v>
+        <v>0.3155204663841147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EMP9524</t>
+          <t>EMP9541</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5206730365753174</v>
+        <v>0.1554127782583237</v>
       </c>
       <c r="C46" t="n">
-        <v>1.000000238418579</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4829301834106445</v>
+        <v>0.3156332671642303</v>
       </c>
       <c r="E46" t="n">
-        <v>0.614774227142334</v>
+        <v>0.6266682147979736</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -5628,110 +5567,111 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, Master of Data Analytics</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+          <t>Bachelor of Science, Master of Data Analytics</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Spark, AWS</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Blockchain Transaction Fraud Detection System, Retail Inventory Optimization with Reinforcement Learning, Smart Grid Load Balancing Using Predictive Analytics, Batch and Streaming Data Processing, Data Mesh Implementation</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>BI Developer, Big Data Engineer, Junior Data Engineer, Software Engineer (Data), Data Warehouse Developer, DevOps Engineer, Database Administrator, Machine Learning Engineer, Cloud Data Engineer, ETL Developer</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>43.18552395605982</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="R46" t="n">
+        <v>63.13</v>
+      </c>
+      <c r="S46" t="n">
+        <v>22</v>
+      </c>
+      <c r="T46" t="n">
+        <v>23</v>
+      </c>
+      <c r="U46" t="n">
+        <v>9</v>
+      </c>
+      <c r="V46" t="n">
         <v>6</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>TensorFlow, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>77</v>
-      </c>
-      <c r="P46" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>73.04000000000001</v>
-      </c>
-      <c r="R46" t="n">
-        <v>6</v>
-      </c>
-      <c r="S46" t="n">
-        <v>12</v>
-      </c>
-      <c r="T46" t="n">
-        <v>7</v>
-      </c>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
-      <c r="V46" t="n">
-        <v>49.45</v>
-      </c>
       <c r="W46" t="n">
-        <v>42.86</v>
+        <v>50.32623483124778</v>
       </c>
       <c r="X46" t="n">
-        <v>31.16</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y46" t="n">
-        <v>99.44</v>
+        <v>26.79907484229638</v>
       </c>
       <c r="Z46" t="n">
-        <v>9.380000000000001</v>
+        <v>48.16338450054555</v>
       </c>
       <c r="AA46" t="n">
-        <v>93.11</v>
+        <v>6.69</v>
       </c>
       <c r="AB46" t="n">
-        <v>94.45999999999999</v>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>GenAI-Powered Customer Insights, AI-Powered Fraud Detection, Recommendation Engine Optimization</t>
-        </is>
+        <v>46.63477975985204</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>31.24277904536062</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.5619205236434937</v>
+        <v>10.01391681989827</v>
       </c>
       <c r="AE46" t="n">
-        <v>12.90511777140855</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0.451420305251833</v>
+        <v>0.7004676651505086</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EMP9294</t>
+          <t>EMP9304</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4392409324645996</v>
+        <v>0.1651186496019363</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7875052094459534</v>
+        <v>0.5365577936172485</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5179641842842102</v>
+        <v>0.3820533156394958</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7451770305633545</v>
+        <v>0.5444984436035156</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -5740,7 +5680,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5750,96 +5690,93 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science, Master of Data Science</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Market Research Analyst</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>19</v>
+          <t>Bachelor of Engineering, Master of AI</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>11</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Tableau</t>
+        </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>TensorFlow, Pandas</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>82.27</v>
+          <t>Employee Productivity Tracker, Sports Performance Analytics Using Wearable Device Data, Automated Legal Document Summarization Using NLP, Sustainability Metrics Dashboard, Dynamic Pricing Analytics Dashboard</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>SQL Data Analyst, BI Analyst, Financial Analyst, Market Research Analyst, Business Analyst, Statistical Analyst, Research Analyst, Operations Analyst, Junior Data Analyst, Risk Analyst</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>10.31</v>
+        <v>50.61820337015997</v>
       </c>
       <c r="Q47" t="n">
-        <v>74.90000000000001</v>
+        <v>14</v>
       </c>
       <c r="R47" t="n">
-        <v>17</v>
+        <v>88.8</v>
       </c>
       <c r="S47" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="T47" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V47" t="n">
-        <v>55.51</v>
+        <v>12</v>
       </c>
       <c r="W47" t="n">
-        <v>100</v>
+        <v>52.90684575499729</v>
       </c>
       <c r="X47" t="n">
-        <v>47.88</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="n">
-        <v>90.95</v>
+        <v>35.49033688527192</v>
       </c>
       <c r="Z47" t="n">
-        <v>4.56</v>
+        <v>70.7239291254586</v>
       </c>
       <c r="AA47" t="n">
-        <v>80.59999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="AB47" t="n">
-        <v>68.68000000000001</v>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>GenAI-Powered Customer Insights, Predictive Maintenance for Manufacturing, Ethical AI Bias Detection, AI-Powered Fraud Detection</t>
-        </is>
+        <v>61.98365676539429</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>54.94317832621901</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.5953065752983093</v>
+        <v>11.19771597164299</v>
       </c>
       <c r="AE47" t="n">
-        <v>20.9775487085623</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1</v>
+        <v>0.9099687726048307</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EMP9379</t>
+          <t>EMP9384</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1941995024681091</v>
+        <v>0.1300423890352249</v>
       </c>
       <c r="C48" t="n">
-        <v>0.722848653793335</v>
+        <v>0.7875052094459534</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4139609336853027</v>
+        <v>0.5123743414878845</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6986917853355408</v>
+        <v>0.6403619050979614</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5847,7 +5784,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -5861,105 +5798,106 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bachelor of Statistics, Master of Data Science, PhD in AI &amp; Automation</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>2</v>
+          <t>Bachelor of Data Science</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>18</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>AWS, Hadoop</t>
+        </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Hadoop, Spark, AWS</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>83.81</v>
+          <t>Smart Grid Load Balancing Using Predictive Analytics, Real-Time IoT Data Pipeline, Scalable Data Lake Implementation</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Data Warehouse Developer, Database Administrator</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>12.88</v>
+        <v>47.91315544828053</v>
       </c>
       <c r="Q48" t="n">
-        <v>98.51000000000001</v>
+        <v>12.99</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>94.86</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V48" t="n">
-        <v>56.65</v>
+        <v>10</v>
       </c>
       <c r="W48" t="n">
-        <v>21.43</v>
+        <v>48.62801572016817</v>
       </c>
       <c r="X48" t="n">
-        <v>19.83</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Y48" t="n">
-        <v>64.23</v>
+        <v>31.44544243436364</v>
       </c>
       <c r="Z48" t="n">
-        <v>8.130000000000001</v>
+        <v>79.15926342619743</v>
       </c>
       <c r="AA48" t="n">
-        <v>78.94</v>
+        <v>7.17</v>
       </c>
       <c r="AB48" t="n">
-        <v>80.91</v>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Data Mesh Implementation, Data Warehouse Optimization</t>
-        </is>
+        <v>51.87686854613568</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>71.15772249536728</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.5729066133499146</v>
+        <v>9.623503898510887</v>
       </c>
       <c r="AE48" t="n">
-        <v>10.01735498623789</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0.2551760710766197</v>
+        <v>0.6313749146830103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EMP9115</t>
+          <t>EMP9122</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4795085191726685</v>
+        <v>0.1642203032970428</v>
       </c>
       <c r="C49" t="n">
-        <v>1.000000238418579</v>
+        <v>0.5392076969146729</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3965902924537659</v>
+        <v>0.4721458256244659</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7330794930458069</v>
+        <v>0.6403619050979614</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -5968,83 +5906,84 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Mid-Level</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bachelor of Computer Science</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>5</v>
+          <t>Bachelor of Data Science</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>15</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Tableau</t>
+        </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Pandas, TensorFlow, Deep Learning</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>76.87</v>
+          <t>Churn Prediction for Subscription Services, AI-Driven Content Moderation for Social Platforms, Customer Segmentation with Clustering, Social Media Trend Forecasting with NLP and Time-Series, Sustainability Metrics Dashboard</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Business Analyst, BI Analyst, Junior Data Analyst, Risk Analyst</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0.34</v>
+        <v>41.27395009783646</v>
       </c>
       <c r="Q49" t="n">
-        <v>77.76000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="S49" t="n">
         <v>7</v>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V49" t="n">
-        <v>49.11</v>
+        <v>6</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>37.29478244230341</v>
       </c>
       <c r="X49" t="n">
-        <v>30.16</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="n">
-        <v>85.41</v>
+        <v>35.9510095578547</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.1</v>
+        <v>80.92589576849271</v>
       </c>
       <c r="AA49" t="n">
-        <v>50.9</v>
+        <v>1.49</v>
       </c>
       <c r="AB49" t="n">
-        <v>77.84999999999999</v>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Predictive Maintenance for Manufacturing, Recommendation Engine Optimization, Deep Learning for Image Recognition</t>
-        </is>
+        <v>38.35654839659835</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>68.35337616560543</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.5650448203086853</v>
+        <v>8.162256903562273</v>
       </c>
       <c r="AE49" t="n">
-        <v>7.083379003114977</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0.05579131798915421</v>
+        <v>0.3727728847230738</v>
       </c>
     </row>
   </sheetData>
